--- a/Renovacao/Dados_Renovacao/Original/Talita Ariani Lopes Fabiano.xlsx
+++ b/Renovacao/Dados_Renovacao/Original/Talita Ariani Lopes Fabiano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:N192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,46 +504,14 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>83600</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>PAULA ROSANA MODOLIN CREPALDI ME</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>De: 18/10/2023a18/10/2024</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>53123088993614</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -586,7 +554,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83929</t>
+          <t>84178</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,22 +564,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TECNOBEST INDUSTRIA E COMERCIO DE MAQUIN</t>
+          <t>CELSO CASTILIO</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>53123089336692</t>
+          <t>53123089675470</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -636,7 +604,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>401287 - A.M.A. - BAURU COR.DE SEGS LTDA.</t>
+          <t>405290 - ABC - CORRETORA DE SEGUROS S/S L</t>
         </is>
       </c>
     </row>
@@ -656,7 +624,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83862</t>
+          <t>85027</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -666,17 +634,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>THIAGO AUGUSTO DE ALMEIDA</t>
+          <t>JOSE MARIA LOPES</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>53123089264004</t>
+          <t>53123090899921</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -706,7 +674,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>401287 - A.M.A. - BAURU COR.DE SEGS LTDA.</t>
+          <t>405290 - ABC - CORRETORA DE SEGUROS S/S L</t>
         </is>
       </c>
     </row>
@@ -726,7 +694,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83333</t>
+          <t>84464</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -736,17 +704,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PRISCILA CARLOS TUMOLO</t>
+          <t>PRISCILA FERNANDA MENOIA FERNANDES</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>53123088664157</t>
+          <t>53123090104503</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -776,7 +744,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>401287 - A.M.A. - BAURU COR.DE SEGS LTDA.</t>
+          <t>401742 - ADESTRA BRU COR.DE SEGS.LTDA</t>
         </is>
       </c>
     </row>
@@ -791,12 +759,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17200</t>
+          <t>84758</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -806,22 +774,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>JOSE WILSON DE MACEDO JUNIOR</t>
+          <t>EDSON APARECIDO FERRO</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>53103BG04QI9T0</t>
+          <t>53123090526378</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -846,7 +814,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>405290 - ABC - CORRETORA DE SEGUROS S/S L</t>
+          <t>401742 - ADESTRA BRU COR.DE SEGS.LTDA</t>
         </is>
       </c>
     </row>
@@ -854,46 +822,14 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17084</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>FELIPE GOMES SALGUEIRO</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>De: 13/10/2023a13/10/2024</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>53103BG041N7L8</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -916,7 +852,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>405290 - ABC - CORRETORA DE SEGUROS S/S L</t>
+          <t>529380 - ADRIANA R M GARCIA CORRETORA DE</t>
         </is>
       </c>
     </row>
@@ -924,46 +860,14 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17203</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>ANA SILVIA LOPES DAVI MEDOLA</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>De: 15/10/2023a15/10/2024</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>53103BG04R5F50</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -986,7 +890,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>405290 - ABC - CORRETORA DE SEGUROS S/S L</t>
+          <t>529571 - AG CORRETORA DE SEGUROS E SERVIC</t>
         </is>
       </c>
     </row>
@@ -994,46 +898,14 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>83280</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>JOAO CARLOS VERONESI</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>53123088663622</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1056,7 +928,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>401742 - ADESTRA BRU COR.DE SEGS.LTDA</t>
+          <t>482584 - ALESSANDRA SILVA DAMACENO</t>
         </is>
       </c>
     </row>
@@ -1064,46 +936,14 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>83290</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>VALERIA MARIA BOESSO DIAS</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>53123088663720</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1116,7 +956,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1126,7 +966,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>401742 - ADESTRA BRU COR.DE SEGS.LTDA</t>
+          <t>482584 - ALESSANDRA SILVA DAMACENO</t>
         </is>
       </c>
     </row>
@@ -1146,7 +986,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>83384</t>
+          <t>84397</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1156,22 +996,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MRM MENOIA &amp; CIA LTDA</t>
+          <t>PAULO SERGIO PEREIRA MIRANDA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>53123088741313</t>
+          <t>53123089977884</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1196,7 +1036,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>401742 - ADESTRA BRU COR.DE SEGS.LTDA</t>
+          <t>403466 - ANGELA CARBONI CORRETORA DE SEGU</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1056,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>83848</t>
+          <t>84779</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1226,22 +1066,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ANDREZA R FERNANDES SCUTERI</t>
+          <t>ANNIE JACKIELINE MONTENEGRO DE SOUZA E S</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>53123089263865</t>
+          <t>53123090579749</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1266,7 +1106,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>401742 - ADESTRA BRU COR.DE SEGS.LTDA</t>
+          <t>403466 - ANGELA CARBONI CORRETORA DE SEGU</t>
         </is>
       </c>
     </row>
@@ -1274,14 +1114,46 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>84715</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MARIANE CRISTINA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>De: 17/11/2023a17/11/2024</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>53123090461136</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1304,7 +1176,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>482584 - ALESSANDRA SILVA DAMACENO</t>
+          <t>403466 - ANGELA CARBONI CORRETORA DE SEGU</t>
         </is>
       </c>
     </row>
@@ -1312,14 +1184,46 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>84673</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LUCIANO ROBERTO RONQUESEL BATOCHIO</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>De: 27/11/2023a27/11/2024</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>53123090379928</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1332,7 +1236,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1342,7 +1246,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>482584 - ALESSANDRA SILVA DAMACENO</t>
+          <t>403466 - ANGELA CARBONI CORRETORA DE SEGU</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1266,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>83159</t>
+          <t>84183</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1372,17 +1276,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>M E MARINS JUNIOR ME</t>
+          <t>DA ROCA ALIMENTOS TDA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>53123088524550</t>
+          <t>53123089675527</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1412,7 +1316,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>403466 - ANGELA CARBONI CORRETORA DE SEGU</t>
+          <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1336,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>83167</t>
+          <t>84303</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1442,17 +1346,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>JOSE ROBERTO BIGLIASSI</t>
+          <t>LUIS FERNANDO APARECIDO RODRIGUES</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>53123088524630</t>
+          <t>53123089913282</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1482,7 +1386,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>403466 - ANGELA CARBONI CORRETORA DE SEGU</t>
+          <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1401,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>83010</t>
+          <t>17404</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1512,17 +1416,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ANDERSON APARECIDO DE AGOSTINI</t>
+          <t>CAIO STEFANO VERONESE</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>53123088315721</t>
+          <t>53103BG05Y8CH5</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1552,7 +1456,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>403466 - ANGELA CARBONI CORRETORA DE SEGU</t>
+          <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1476,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>83615</t>
+          <t>83830</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1582,17 +1486,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>KATIUCIA CRISTINA PIVA</t>
+          <t>BENEDITO CORREIA PINTO</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>De: 21/10/2023a21/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>53123088993762</t>
+          <t>53123089198222</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1622,7 +1526,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>403466 - ANGELA CARBONI CORRETORA DE SEGU</t>
+          <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -1630,46 +1534,14 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>83030</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>TORRINHA MATERIAIS PARA CONSTRUCAO LTDA</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>De: 01/10/2023a01/10/2024</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>53123088392270</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1692,7 +1564,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
+          <t>402153 - BARINNI ADM. E COR. SEGS LTDA.</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1584,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>82812</t>
+          <t>84272</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1722,17 +1594,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MARIA ROSANGELA URBANO PESSA</t>
+          <t>FH COLUCCI COMERCIO IMPORTACAO E EXPORTA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>De: 02/10/2023a02/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>53123088074392</t>
+          <t>53123089844655</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1762,7 +1634,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
+          <t>404723 - BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1649,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>16923</t>
+          <t>471</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1792,17 +1664,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>JONAS ELIAS BALESTRERO BETTE</t>
+          <t>JOSE LUIZ CHICARELLI</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>De: 04/10/2023a04/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>53103BG0334XD3</t>
+          <t>53103BFXD4WHD5</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1832,7 +1704,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
+          <t>404723 - BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -1847,12 +1719,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17023</t>
+          <t>472</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1862,17 +1734,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MARIA CRISTINA DI PACE SCHMIDT</t>
+          <t>JOSE LUIZ CHICARELLI</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>De: 04/10/2023a04/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>53103BG03OKJ58</t>
+          <t>53103BFXD54751</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1902,7 +1774,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
+          <t>404723 - BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -1917,12 +1789,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>600</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>17059</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1932,17 +1804,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SICILIA PEREZ DE CAMARGO</t>
+          <t>JOSE LUIZ CHICARELLI</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>De: 04/10/2023a04/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>53103BG03WAB50</t>
+          <t>53103BFXIBDG10</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1972,7 +1844,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
+          <t>404723 - BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1859,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17079</t>
+          <t>85353</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2002,17 +1874,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ARIELI MARRAN DA SILVA</t>
+          <t>SUELI ZAGATTI DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>53103BG040KMP6</t>
+          <t>53123091288063</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2042,7 +1914,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
+          <t>404723 - BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -2050,46 +1922,14 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>82678</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>FLAVIO ANTONIO SIMOES</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>53123087837422</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2102,7 +1942,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2112,7 +1952,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
+          <t>404723 - BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -2127,12 +1967,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2321</t>
+          <t>84479</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2142,17 +1982,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EDIO LOPES BALTAZAR</t>
+          <t>MARCOS HENRIQUE USTULIN</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>De: 07/10/2023a07/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>53103BFXO5F691</t>
+          <t>53123090104651</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2182,7 +2022,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
+          <t>521399 - BERTUZZO CORRE DE SEGS E PECAS L</t>
         </is>
       </c>
     </row>
@@ -2190,46 +2030,14 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>17143</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>DOUGLAS DE SANTIS GRECCO</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>De: 09/10/2023a09/10/2024</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>53103BG04EAGH8</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2252,7 +2060,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
+          <t>537340 - C2L CORRETORA DE SEGUROS E NEG L</t>
         </is>
       </c>
     </row>
@@ -2260,46 +2068,14 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>17115</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>ANTONIO SERAFIM PEDRO ANGELO</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>De: 13/10/2023a13/10/2024</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>53103BG048AEP8</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2322,7 +2098,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
+          <t>402209 - CAMARGO PENTEADO COR.SEGS S/C LT</t>
         </is>
       </c>
     </row>
@@ -2342,7 +2118,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>83136</t>
+          <t>84131</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2352,17 +2128,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DANIELA TEIXEIRA GREGOLIM BATISTA</t>
+          <t>BRL EXPRESS TRANSPORTES E LOGISTICA EIRE</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>De: 21/10/2023a21/10/2024</t>
+          <t>De: 03/11/2023a03/11/2024</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>53123088462279</t>
+          <t>53123089604727</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2392,7 +2168,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
+          <t>404445 - CAPPI &amp; MACHADO CORRETORA DE SEG</t>
         </is>
       </c>
     </row>
@@ -2407,12 +2183,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>83920</t>
+          <t>17803</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2422,17 +2198,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ATAIDE MARIANNO</t>
+          <t>GERALDO CAMILO BRANDAO MACHADO</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 18/11/2023a18/11/2024</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>53123089336609</t>
+          <t>53103BG08BR1T6</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2462,7 +2238,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>402153 - BARINNI ADM. E COR. SEGS LTDA.</t>
+          <t>404445 - CAPPI &amp; MACHADO CORRETORA DE SEG</t>
         </is>
       </c>
     </row>
@@ -2477,12 +2253,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>84831</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2492,17 +2268,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>EDER BONFANTE TENORIO</t>
+          <t>JOSE PAULINO DOS SANTOS</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>53103BFXHXFWH3</t>
+          <t>53123090633271</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2532,7 +2308,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>404723 - BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
+          <t>404445 - CAPPI &amp; MACHADO CORRETORA DE SEG</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2328,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>83126</t>
+          <t>84848</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2562,17 +2338,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>LEANDRO COLUCI</t>
+          <t>OSMAR ALVES MARTINS</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>53123088462171</t>
+          <t>53123090633441</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2602,7 +2378,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>404723 - BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
+          <t>404445 - CAPPI &amp; MACHADO CORRETORA DE SEG</t>
         </is>
       </c>
     </row>
@@ -2610,46 +2386,14 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>83127</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>FLAVIO HENRIQUE COLUCCI</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>De: 03/10/2023a03/10/2024</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>53123088462180</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2662,7 +2406,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2672,7 +2416,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>404723 - BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
+          <t>404445 - CAPPI &amp; MACHADO CORRETORA DE SEG</t>
         </is>
       </c>
     </row>
@@ -2680,46 +2424,14 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1277</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>CLAUDIO ROBERTO ESCORCE E OUTROS</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>53103BFXHXNM99</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2742,7 +2454,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>404723 - BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
+          <t>421764 - CARBANE COR DE SEGUROS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2474,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>83938</t>
+          <t>30086</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2772,17 +2484,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>FH COLUCCI IMPORTACAO E EXPORTACAO</t>
+          <t>GENILTON LEITTE NETO</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>53123089336781</t>
+          <t>53123090380012</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2802,7 +2514,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2812,7 +2524,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>404723 - BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
+          <t>421764 - CARBANE COR DE SEGUROS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -2820,14 +2532,46 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5623</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LUIZ CARLOS DA SILVA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>De: 17/11/2023a17/11/2024</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>53103BKJLJUY95</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2850,7 +2594,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>404723 - BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
+          <t>421764 - CARBANE COR DE SEGUROS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2614,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17392</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2880,17 +2624,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>RODRIGO ALESSANDRO VIEIRA</t>
+          <t>NELSON EMIDIO</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>53103BG05VNR52</t>
+          <t>53103BKJLK2O10</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2910,7 +2654,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -2920,7 +2664,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>521399 - BERTUZZO CORRETORA DA SEGUROS LT</t>
+          <t>421764 - CARBANE COR DE SEGUROS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -2935,12 +2679,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>83748</t>
+          <t>5625</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2950,17 +2694,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CLEONICE APARECIDA SOUZA DE TILIO</t>
+          <t>VALDENIR TROMBELLA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 26/11/2023a26/11/2024</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>53123089138530</t>
+          <t>53103BKJLKADT1</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2980,7 +2724,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -2990,7 +2734,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>402209 - CAMARGO PENTEADO COR.SEGS S/C LT</t>
+          <t>421764 - CARBANE COR DE SEGUROS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -3010,7 +2754,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>17324</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3020,17 +2764,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>VICENTE ROBERTO FURTADO</t>
+          <t>FABIO LUIS SCASSOLA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>53103BG05H3294</t>
+          <t>53103BKJLKI3L3</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3050,7 +2794,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3060,7 +2804,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>404445 - CAPPI &amp; MACHADO CORRETORA DE SEG</t>
+          <t>421764 - CARBANE COR DE SEGUROS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -3068,14 +2812,46 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5627</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>FABIO LUIS SCASSOLA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>De: 27/11/2023a27/11/2024</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>53103BKJLKPTD2</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3098,7 +2874,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>404445 - CAPPI &amp; MACHADO CORRETORA DE SEG</t>
+          <t>421764 - CARBANE COR DE SEGUROS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -3106,14 +2882,46 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17532</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>MONIQUE ELEN LINO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>De: 01/11/2023a01/11/2024</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>53103BG06PO010</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3136,7 +2944,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>421764 - CARBANE COR DE SEGUROS LTDA ME</t>
+          <t>401547 - CARLOS JOSE CORAZZA COR.DE SEGS</t>
         </is>
       </c>
     </row>
@@ -3156,7 +2964,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5613</t>
+          <t>17628</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3166,17 +2974,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>BELMIRA BARBOSA DO NASCIMENTO</t>
+          <t>CAUE ZACHO DE SOUZA PACHECO</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>De: 02/10/2023a02/10/2024</t>
+          <t>De: 09/11/2023a09/11/2024</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>53103BKJLHPSH1</t>
+          <t>53103BG07A8QP0</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3196,7 +3004,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3206,7 +3014,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>421764 - CARBANE COR DE SEGUROS LTDA ME</t>
+          <t>401547 - CARLOS JOSE CORAZZA COR.DE SEGS</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3034,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5617</t>
+          <t>17840</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3236,17 +3044,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>TIAGO MULLER LEME DUARTE</t>
+          <t>MARCOS SAGIN CAMPOS</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>De: 14/10/2023a14/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>53103BKJLIKNL1</t>
+          <t>53103BG08JOJL7</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3266,7 +3074,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3276,7 +3084,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>421764 - CARBANE COR DE SEGUROS LTDA ME</t>
+          <t>401547 - CARLOS JOSE CORAZZA COR.DE SEGS</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3104,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5618</t>
+          <t>17974</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3306,17 +3114,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>JOSEFA EMIDIO</t>
+          <t>SUELI APARECIDA CORREA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>53103BKJLISDD4</t>
+          <t>53103BG09CEHT0</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3336,7 +3144,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3346,7 +3154,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>421764 - CARBANE COR DE SEGUROS LTDA ME</t>
+          <t>402349 - CARRER CORRETORA DE SEGUROS S/S</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3169,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17045</t>
+          <t>84982</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3376,17 +3184,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ROSABEL CRISTINA CAVALLARI</t>
+          <t>MARLENE TEREZINHA ZAGATO COSTA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>53103BG03TAA99</t>
+          <t>53123090833467</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3416,7 +3224,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>401547 - CARLOS JOSE CORAZZA COR.DE SEGS</t>
+          <t>402349 - CARRER CORRETORA DE SEGUROS S/S</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3244,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>17278</t>
+          <t>17764</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3446,17 +3254,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SIDNEI ALCIDES FALCADE</t>
+          <t>MARCELO SERRA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>De: 17/10/2023a17/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>53103BG05784H0</t>
+          <t>53103BG083E4H5</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3486,7 +3294,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>401547 - CARLOS JOSE CORAZZA COR.DE SEGS</t>
+          <t>480878 - CENTRAL BAURU CORRETORA DE SEGS</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3314,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>17279</t>
+          <t>17767</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3516,17 +3324,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>OTELO CONCEICAO FRANCO</t>
+          <t>MARCELO SERRA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>53103BG057FU97</t>
+          <t>53103BG08419T8</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3556,7 +3364,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>401547 - CARLOS JOSE CORAZZA COR.DE SEGS</t>
+          <t>480878 - CENTRAL BAURU CORRETORA DE SEGS</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3384,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17352</t>
+          <t>17788</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3586,17 +3394,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO TEDESCHI</t>
+          <t>MARCELO SERRA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>De: 22/10/2023a22/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>53103BG05N3416</t>
+          <t>53103BG088JB50</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3626,7 +3434,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>401547 - CARLOS JOSE CORAZZA COR.DE SEGS</t>
+          <t>480878 - CENTRAL BAURU CORRETORA DE SEGS</t>
         </is>
       </c>
     </row>
@@ -3641,12 +3449,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>83939</t>
+          <t>17498</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3656,17 +3464,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>AMPHILO E AMPHILO LTDA</t>
+          <t>EMILIO ANTONIO JUSTO</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 03/11/2023a03/11/2024</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>53123089336790</t>
+          <t>53103BG06IDNL1</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3696,7 +3504,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>401547 - CARLOS JOSE CORAZZA COR.DE SEGS</t>
+          <t>404287 - CHIQUINATTO PARENTI COR DE SEGS</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3524,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17422</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3726,17 +3534,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MARIA DO CARMO FRANCO</t>
+          <t>ANTONIO ANGELO PASSEBOM</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>De: 31/10/2023a31/10/2024</t>
+          <t>De: 05/11/2023a05/11/2024</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>53103BG06238H5</t>
+          <t>53103BG06IT359</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3766,7 +3574,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>401547 - CARLOS JOSE CORAZZA COR.DE SEGS</t>
+          <t>404287 - CHIQUINATTO PARENTI COR DE SEGS</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3589,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>917</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>17219</t>
+          <t>722</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3796,17 +3604,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MARISA GONCALVES RODRIGUES</t>
+          <t>PINUSTEC COMERCIO DE MADEIRAS</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 09/11/2023a09/11/2024</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>53103BG04UKVL0</t>
+          <t>53103BFXEMP7L3</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3836,7 +3644,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>402349 - CARRER CORRETORA DE SEGUROS S/S</t>
+          <t>404287 - CHIQUINATTO PARENTI COR DE SEGS</t>
         </is>
       </c>
     </row>
@@ -3851,12 +3659,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>17305</t>
+          <t>84418</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3866,17 +3674,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CELSO SVIZERO</t>
+          <t>RESOFT CONSULTORIA E ASSESSORIA EM INFOR</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 12/11/2023a12/11/2024</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>53103BG05D0GH9</t>
+          <t>53123090031646</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3906,7 +3714,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>402349 - CARRER CORRETORA DE SEGUROS S/S</t>
+          <t>404287 - CHIQUINATTO PARENTI COR DE SEGS</t>
         </is>
       </c>
     </row>
@@ -3921,12 +3729,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>83639</t>
+          <t>17733</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3936,17 +3744,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MARIA CLAUDIA PEREIRA</t>
+          <t>RAFAEL HENRIQUE MARTINS JOSEPETTI</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 14/11/2023a14/11/2024</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>53123089061375</t>
+          <t>53103BG07WQXD2</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3976,7 +3784,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>480878 - CENTRAL BAURU CORRETORA DE SEGS</t>
+          <t>404287 - CHIQUINATTO PARENTI COR DE SEGS</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3799,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>17215</t>
+          <t>2410</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4006,17 +3814,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>LUIZ GUSTAVO MUNIZ CANDIA</t>
+          <t>ANA CLAUDIA ARTIGOS PARA PRESENTES LTDA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>De: 14/10/2023a14/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>53103BG04TQ0H4</t>
+          <t>53103BFXOOHWH9</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4046,7 +3854,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>480878 - CENTRAL BAURU CORRETORA DE SEGS</t>
+          <t>404287 - CHIQUINATTO PARENTI COR DE SEGS</t>
         </is>
       </c>
     </row>
@@ -4066,7 +3874,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>17347</t>
+          <t>17606</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4076,17 +3884,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>JULIANA PAIS DE MENDONCA</t>
+          <t>RENE EDUARDO MARIANO DE ALMEIDA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>De: 21/10/2023a21/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>53103BG05M0J54</t>
+          <t>53103BG075IZL6</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4116,7 +3924,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>480878 - CENTRAL BAURU CORRETORA DE SEGS</t>
+          <t>404287 - CHIQUINATTO PARENTI COR DE SEGS</t>
         </is>
       </c>
     </row>
@@ -4131,12 +3939,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>83596</t>
+          <t>17691</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4146,17 +3954,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ANGELICA CRISTINA VIOTTO GIANFELICE</t>
+          <t>LUIZ JOSE BOSCO</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>De: 17/10/2023a17/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>53123088993576</t>
+          <t>53103BG07NQUP0</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4201,12 +4009,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>600</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>84084</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4216,17 +4024,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MONICA REGINA MICHELETTO MAGOLBO</t>
+          <t>PINUSTEC COMERCIO DE MADEIRAS</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>53123089604255</t>
+          <t>53103BFXIAQAP8</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4276,7 +4084,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>17237</t>
+          <t>17854</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4286,17 +4094,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MARIA ISABEL TEDESCO MEIRA LEITE DE ARAUJO</t>
+          <t>MARCO AURELIO CORREA</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>53103BG04YFRL1</t>
+          <t>53103BG08MOKH8</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4341,12 +4149,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>17097</t>
+          <t>85270</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4356,17 +4164,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>WALTER ANTONIO PARENTI</t>
+          <t>DORALICE COURAS DIAZ ARANA</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>De: 26/10/2023a26/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>53103BG044FIP7</t>
+          <t>53123091227781</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4404,14 +4212,46 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>PINUSTEC COMERCIO DE MADEIRAS</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>De: 30/11/2023a30/11/2024</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>53103BFXEM9S10</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4424,7 +4264,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4434,7 +4274,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>494852 - CINSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>404287 - CHIQUINATTO PARENTI COR DE SEGS</t>
         </is>
       </c>
     </row>
@@ -4442,46 +4282,14 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>83307</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>AQUILES VITORINO DE FRANCA</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>De: 06/10/2023a06/10/2024</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>53123088663894</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4494,7 +4302,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4504,7 +4312,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>404838 - CONFIALLE CORR SEGS EIRELI EPP</t>
+          <t>494852 - CINSEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -4512,46 +4320,14 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>83238</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>FABIO EDUARDO BUENO</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>De: 10/10/2023a10/10/2024</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>53123088583181</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4589,12 +4365,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>83857</t>
+          <t>17520</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4604,17 +4380,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>LEONARDO PAULINO DA SILVA</t>
+          <t>ANA LAURA PALUDETTO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>53123089263954</t>
+          <t>53103BG06N3EP8</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4644,7 +4420,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>404838 - CONFIALLE CORR SEGS EIRELI EPP</t>
+          <t>515873 - COPAIBA CORR E AGENTES DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -4664,7 +4440,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>83698</t>
+          <t>84477</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4674,17 +4450,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>MARIA APARECIDA BORGES</t>
+          <t>DENILSON D SILVA MINIMERCADO EIRELI ME</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>De: 22/10/2023a22/10/2024</t>
+          <t>De: 09/11/2023a09/11/2024</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>53123089061960</t>
+          <t>53123090104635</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4714,7 +4490,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>404838 - CONFIALLE CORR SEGS EIRELI EPP</t>
+          <t>515873 - COPAIBA CORR E AGENTES DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -4729,12 +4505,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2338</t>
+          <t>17664</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4744,17 +4520,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>LARA LINO  CIA SERVICOS DE APOIO LTDA</t>
+          <t>SANDRO ANELLI PINOTTI</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>De: 14/10/2023a14/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>53103BFXO92CH3</t>
+          <t>53103BG07HYIP0</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4799,12 +4575,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>83856</t>
+          <t>17657</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4814,17 +4590,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>PAULO SERGIO MARCATO</t>
+          <t>FABIO ANTUNES DA SILVA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 14/11/2023a14/11/2024</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>53123089263946</t>
+          <t>53103BG07GGI92</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4854,7 +4630,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>403403 - CORRETO CORRETO COR DE SEGS LTDA</t>
+          <t>515873 - COPAIBA CORR E AGENTES DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -4862,14 +4638,46 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>17893</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>HUMBERTO RODRIGO DOS SANTOS FRANCETTO</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>De: 24/11/2023a24/11/2024</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>53103BG08V1HT2</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4882,7 +4690,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -4892,7 +4700,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>403403 - CORRETO CORRETO COR DE SEGS LTDA</t>
+          <t>515873 - COPAIBA CORR E AGENTES DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -4900,14 +4708,46 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>17882</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>PATRICIA LECY RODRIGUES ANTONUCCI</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>De: 25/11/2023a25/11/2024</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>53103BG08SOM92</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4930,7 +4770,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>405064 - CORRETORA DOMINGUES DE SEGS LTDA</t>
+          <t>515873 - COPAIBA CORR E AGENTES DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -4950,7 +4790,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>17062</t>
+          <t>17857</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4960,17 +4800,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>MARCO CESAR LEITE</t>
+          <t>LEONARDO SIMAO</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>De: 04/10/2023a04/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>53103BG03WXGH8</t>
+          <t>53103BG08NBPT5</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5000,7 +4840,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>400269 - CRISTIANO KRISTENSEN</t>
+          <t>515873 - COPAIBA CORR E AGENTES DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -5015,12 +4855,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>17070</t>
+          <t>84833</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5030,17 +4870,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MARISA SACCON VIEIRA</t>
+          <t>BARBARA GONCALVES LOGULLO</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>De: 04/10/2023a04/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>53103BG03YN6P7</t>
+          <t>53123090633298</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5070,7 +4910,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>400269 - CRISTIANO KRISTENSEN</t>
+          <t>403403 - CORRETO CORRETO COR DE SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -5085,12 +4925,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>17111</t>
+          <t>84733</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5100,17 +4940,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>LUCIANA MARIA DE ANDRADE</t>
+          <t>MONICA ELIZA ANDRADE DA SILVA ROSA</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>53103BG047FJL8</t>
+          <t>53123090461314</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5140,7 +4980,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>400269 - CRISTIANO KRISTENSEN</t>
+          <t>403403 - CORRETO CORRETO COR DE SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5000,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>84003</t>
+          <t>85268</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5170,17 +5010,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>GERALDO FERREIRA DE ALMEIDA</t>
+          <t>NILTON TANI</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>53123089456892</t>
+          <t>53123091161373</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5210,7 +5050,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>404916 - D.L. CORRETORA DE SEGUROS LTDA.</t>
+          <t>403403 - CORRETO CORRETO COR DE SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -5218,46 +5058,14 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>926</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>2363</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>ARMANDO PAFETTI FILHO</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>De: 27/10/2023a27/10/2024</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>53103BFXOEF8X7</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5270,7 +5078,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -5280,7 +5088,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>400907 - DANIEL DE ANDRADE GHIROTTI</t>
+          <t>403403 - CORRETO CORRETO COR DE SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5108,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>83186</t>
+          <t>85021</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5310,22 +5118,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>MARIA APARECIDA BARDELE</t>
+          <t>NIVALDO ROBERTO BETONI</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>53123088524827</t>
+          <t>53123090899867</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5350,7 +5158,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>403554 - EDINHO CORRETORA DE SEGUROS LTDA</t>
+          <t>405064 - CORRETORA DOMINGUES DE SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5178,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>17262</t>
+          <t>17647</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5380,17 +5188,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>LEONARDO JORGE IANI</t>
+          <t>HENRIQUE REZENDE BUENO</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>53103BG053SO19</t>
+          <t>53103BG07EBCH9</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5420,7 +5228,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>403554 - EDINHO CORRETORA DE SEGUROS LTDA</t>
+          <t>400269 - CRISTIANO KRISTENSEN</t>
         </is>
       </c>
     </row>
@@ -5435,12 +5243,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>83641</t>
+          <t>17839</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5450,17 +5258,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>VALMIR FRANCISCO NARCISO</t>
+          <t>CRISTIANO KRISTENSEN</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>53123089061391</t>
+          <t>53103BG08JGTT4</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5490,7 +5298,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>403554 - EDINHO CORRETORA DE SEGUROS LTDA</t>
+          <t>400269 - CRISTIANO KRISTENSEN</t>
         </is>
       </c>
     </row>
@@ -5505,12 +5313,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>83497</t>
+          <t>17864</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5520,22 +5328,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ANA CAROLINA PAULINO ABDO</t>
+          <t>MARCIA CAMPOS</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>53123088866566</t>
+          <t>53103BG08OTQ91</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5560,7 +5368,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>403554 - EDINHO CORRETORA DE SEGUROS LTDA</t>
+          <t>400269 - CRISTIANO KRISTENSEN</t>
         </is>
       </c>
     </row>
@@ -5575,12 +5383,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>84156</t>
+          <t>2418</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5590,17 +5398,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>SIDNEI PAGIN</t>
+          <t>ROFICAM COMERCIO DE PECAS E SERVICOS AUTOMOTIVOS L</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>53123089675250</t>
+          <t>53103BFXOQ7MP4</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5630,7 +5438,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>403554 - EDINHO CORRETORA DE SEGUROS LTDA</t>
+          <t>400269 - CRISTIANO KRISTENSEN</t>
         </is>
       </c>
     </row>
@@ -5638,14 +5446,46 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2440</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>DANIELA YOKOYAMA CORREA CASTEQUINI DE CAMPOS</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>De: 28/11/2023a28/11/2024</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>53103BFXOUXDT3</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5668,7 +5508,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>405195 - FUNDAMENTAL COR.DE SEGUROS LTDA</t>
+          <t>400269 - CRISTIANO KRISTENSEN</t>
         </is>
       </c>
     </row>
@@ -5676,46 +5516,14 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>917</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>709</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>JJL NOVA ALIANCA POCOS ARTESIANOS</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>De: 04/10/2023a04/10/2024</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>53103BFXEJWWH1</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5738,7 +5546,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>404714 - GARSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>404916 - D.L. CORRETORA DE SEGUROS LTDA.</t>
         </is>
       </c>
     </row>
@@ -5753,12 +5561,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>82958</t>
+          <t>17514</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5768,17 +5576,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>LUCIA ADRIANA ROSARIO GOMES</t>
+          <t>DAVISON HENRY CEZAROTTI</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>De: 04/10/2023a04/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>53123088253602</t>
+          <t>53103BG06LT410</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5808,7 +5616,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>404714 - GARSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>400907 - DANIEL DE ANDRADE GHIROTTI</t>
         </is>
       </c>
     </row>
@@ -5823,12 +5631,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>83141</t>
+          <t>2375</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5838,22 +5646,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ANTONIO PERES</t>
+          <t>IGREJA PRESBITERIANA INDEPENDENTE DE LENCOIS PAULI</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>De: 07/10/2023a07/10/2024</t>
+          <t>De: 06/11/2023a06/11/2024</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>53123088462325</t>
+          <t>53103BFXOGZU92</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5878,7 +5686,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>404714 - GARSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>400907 - DANIEL DE ANDRADE GHIROTTI</t>
         </is>
       </c>
     </row>
@@ -5898,7 +5706,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>17187</t>
+          <t>17658</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5908,17 +5716,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ELIAS CALIL LUTFI</t>
+          <t>SILVIO EDUARDO DORETTO</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>53103BG04NPYP9</t>
+          <t>53103BG07GO814</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5948,7 +5756,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>404714 - GARSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>400907 - DANIEL DE ANDRADE GHIROTTI</t>
         </is>
       </c>
     </row>
@@ -5963,12 +5771,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>83664</t>
+          <t>17603</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5978,17 +5786,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>MITRA DIOCESANA DE MARILIA - PAROQUIA SA</t>
+          <t>TIAGO HENRIQUE MARTINS</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 07/11/2023a07/11/2024</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>53123089061626</t>
+          <t>53103BG074VU91</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6018,7 +5826,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>404714 - GARSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>403554 - EDINHO CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6033,12 +5841,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>17327</t>
+          <t>84501</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6048,17 +5856,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>SANDRA HATSUMI TOYOTA SILVA</t>
+          <t>MARCIA ALEXANDRA PASTORELLO REFUNDINI</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 19/11/2023a19/11/2024</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>53103BG05HQ7L7</t>
+          <t>53123090104872</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6088,7 +5896,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>404714 - GARSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>403554 - EDINHO CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6103,12 +5911,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>83551</t>
+          <t>17923</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6118,17 +5926,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CLELIA MARIA DA SILVA DOS SANTOS</t>
+          <t>ANTONIO ABDO JUNIOR</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>53123088919627</t>
+          <t>53103BG091GZ52</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6158,7 +5966,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>404714 - GARSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>403554 - EDINHO CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6173,12 +5981,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>84934</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6188,17 +5996,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>GARCA POCOS ARTESIANOS E CONSTRUTORA LTDA</t>
+          <t>JONATHAN SILVA MOREIRA ROSA</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>53103BFXELEWX9</t>
+          <t>53123090762780</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6228,7 +6036,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>404714 - GARSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>403554 - EDINHO CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6236,46 +6044,14 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>17349</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>SANDRA HATSUMI TOYOTA SILVA</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>De: 20/10/2023a20/10/2024</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>53103BG05MFYP4</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6298,7 +6074,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>404714 - GARSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>405195 - FUNDAMENTAL COR.DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6306,46 +6082,14 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>83980</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>GARBENS PARTICIPACOES E ADMINISTRADORA D</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>De: 24/10/2023a24/10/2024</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>53123089403462</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6368,7 +6112,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>404714 - GARSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>538800 - Fiz Corretora de Seguros LTDA</t>
         </is>
       </c>
     </row>
@@ -6383,12 +6127,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>17406</t>
+          <t>84483</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6398,22 +6142,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CATARINA DOS SANTOS</t>
+          <t>CARLOS JOAQUIM PAULINO PINTO</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>53103BG05YNS13</t>
+          <t>53123090104694</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6446,14 +6190,46 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>17702</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>MARINA GABRIELA PERON DE CASTRO</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>De: 14/11/2023a14/11/2024</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>53103BG07Q3Q98</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6466,7 +6242,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -6476,7 +6252,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>404715 - GARSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>404714 - GARSEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6491,12 +6267,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>83169</t>
+          <t>17795</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6506,17 +6282,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>LUCIA TRINCA GARCIA CAPRIOLI</t>
+          <t>SANDRA HATSUMI TOYOTA SILVA</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>De: 08/10/2023a08/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>53123088524657</t>
+          <t>53103BG08A1BL9</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6546,7 +6322,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>402336 - IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
+          <t>404714 - GARSEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6561,12 +6337,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>600</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>83415</t>
+          <t>1328</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6576,17 +6352,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>RICHARD SIQUEIRA DA SILVA</t>
+          <t>FERNANDO JACOB NEUBERN</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>De: 09/10/2023a09/10/2024</t>
+          <t>De: 25/11/2023a25/11/2024</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>53123088804072</t>
+          <t>53103BFXI8L4X8</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6616,7 +6392,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>402336 - IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
+          <t>404714 - GARSEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6624,46 +6400,14 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>83952</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>SILENE JARINA SANTILLI</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>De: 13/10/2023a13/10/2024</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>53123089336927</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6676,7 +6420,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -6686,7 +6430,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>402336 - IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
+          <t>404715 - GARSEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6450,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>83395</t>
+          <t>84546</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6716,17 +6460,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>MARCELO SOARES MAGNANI</t>
+          <t>FABRICIO BEDUSCHI BELOTI</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 18/11/2023a18/11/2024</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>53123088741429</t>
+          <t>53123090178450</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6764,14 +6508,46 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>84735</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>MARCIO VINICIUS LACAVA</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>De: 23/11/2023a23/11/2024</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>53123090461330</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6784,7 +6560,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -6802,14 +6578,46 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>18005</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>JONATHAN HENRIQUE FLORENTINO SIQUEIRA</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>De: 30/11/2023a30/11/2024</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>53103BG09J1OX5</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6832,7 +6640,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>528651 - JSJ CORRETORA DE SEGUROS LTDA</t>
+          <t>402336 - IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
         </is>
       </c>
     </row>
@@ -6840,46 +6648,14 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>17036</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>FRANCISCO CARLOS CAZALE DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>De: 03/10/2023a03/10/2024</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>53103BG03RCU96</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6892,7 +6668,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -6902,7 +6678,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>441532 - JVR ADM E COR DE SEGS LTDA</t>
+          <t>402336 - IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
         </is>
       </c>
     </row>
@@ -6910,46 +6686,14 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>17039</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>DORCEIA GREGORIO PEDRO</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>De: 03/10/2023a03/10/2024</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>53103BG03RZZL4</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6972,7 +6716,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>441532 - JVR ADM E COR DE SEGS LTDA</t>
+          <t>530111 - JP FRASSON FONCATTI TURCATO COR</t>
         </is>
       </c>
     </row>
@@ -6980,46 +6724,14 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>17280</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>CLOVIS MAZALLI JUNIOR</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>De: 17/10/2023a17/10/2024</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>53103BG057NK10</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -7042,7 +6754,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>441532 - JVR ADM E COR DE SEGS LTDA</t>
+          <t>528651 - JSJ CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7050,14 +6762,46 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>17939</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>CLAYTON LOPES MORAL</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>De: 28/11/2023a28/11/2024</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>53103BG094WFL3</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -7070,7 +6814,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -7100,7 +6844,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>82881</t>
+          <t>85016</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7110,17 +6854,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>JULIANA DE ALMEIDA NASCIMENTO</t>
+          <t>PRISCILA CLAVICO FERREIRA</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>De: 02/10/2023a02/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>53123088140158</t>
+          <t>53123090899816</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7150,7 +6894,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>404836 - LIDER COR.DE SEGUROS S/C LTDA.</t>
+          <t>441532 - JVR ADM E COR DE SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -7158,46 +6902,14 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>84022</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>VIVIANE PLAZA DA SILVA</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>De: 30/10/2023a30/10/2024</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>53123089457082</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -7210,7 +6922,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -7220,7 +6932,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>404836 - LIDER COR.DE SEGUROS S/C LTDA.</t>
+          <t>441532 - JVR ADM E COR DE SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -7235,12 +6947,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>17093</t>
+          <t>84609</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7250,22 +6962,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ELIZA SAYURI KAWANO</t>
+          <t>ADEMILSON APARECIDO CORREIA</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>53103BG043KNL7</t>
+          <t>53123090379286</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7290,7 +7002,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>404716 - MACS MARILIA ADM E COR SEG LTDA</t>
+          <t>404836 - LIDER COR.DE SEGUROS S/C LTDA.</t>
         </is>
       </c>
     </row>
@@ -7298,14 +7010,46 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>84556</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>ALESSANDRO MORIIZUMI</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>De: 17/11/2023a17/11/2024</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>53123090226366</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J105" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -7318,7 +7062,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -7328,7 +7072,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>404717 - MACS MARILIA ADM E COR SEG LTDA</t>
+          <t>404836 - LIDER COR.DE SEGUROS S/C LTDA.</t>
         </is>
       </c>
     </row>
@@ -7343,12 +7087,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>83491</t>
+          <t>17564</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7358,17 +7102,17 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>RICARDO HENRIQUE TAYANO FANTON</t>
+          <t>CEZARIO GIMENEZ MUNHOZ</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a05/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>53123088866507</t>
+          <t>53103BG06WIWX3</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7398,7 +7142,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>404835 - MAFA CORRETORA DE SEGUROS LTDA</t>
+          <t>404716 - MACS MARILIA ADM E COR SEG LTDA</t>
         </is>
       </c>
     </row>
@@ -7413,12 +7157,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>83139</t>
+          <t>17808</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -7428,17 +7172,17 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>MARIA TEREZA MARINATTO DE MATTOS</t>
+          <t>SERGIO KOODI KINOSHITA</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>53123088462309</t>
+          <t>53103BG08CTMP5</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7468,7 +7212,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>404835 - MAFA CORRETORA DE SEGUROS LTDA</t>
+          <t>404716 - MACS MARILIA ADM E COR SEG LTDA</t>
         </is>
       </c>
     </row>
@@ -7488,7 +7232,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>83977</t>
+          <t>84442</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7498,17 +7242,17 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>EDUARDO ZUIM</t>
+          <t>LUDVIG HAFNER</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>53123089403438</t>
+          <t>53123090031883</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7538,7 +7282,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>404835 - MAFA CORRETORA DE SEGUROS LTDA</t>
+          <t>404716 - MACS MARILIA ADM E COR SEG LTDA</t>
         </is>
       </c>
     </row>
@@ -7546,46 +7290,14 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>83707</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>ALEXANDRE LHAMAS RAMOS</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>De: 25/10/2023a25/10/2024</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>53123089062053</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -7598,7 +7310,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -7608,7 +7320,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>404835 - MAFA CORRETORA DE SEGUROS LTDA</t>
+          <t>404717 - MACS MARILIA ADM E COR SEG LTDA</t>
         </is>
       </c>
     </row>
@@ -7616,14 +7328,46 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>84129</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>JEAN CLOUD CAMPOS GONCALVES</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>De: 03/11/2023a03/11/2024</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>53123089604700</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J110" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -7646,7 +7390,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>400299 - MARCOS ANTONIO POMPOLINI PAIVA</t>
+          <t>404835 - MAFA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7666,7 +7410,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>83781</t>
+          <t>84253</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -7676,17 +7420,17 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>HELIO TOSHIO YAMAMOTO</t>
+          <t>PAULO DE MORAES PRADO</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>De: 22/10/2023a22/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>53123089197730</t>
+          <t>53123089792680</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7716,7 +7460,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>404128 - MINUCCI &amp; ZANUTO COR SEG LTDA</t>
+          <t>404835 - MAFA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7736,7 +7480,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>83963</t>
+          <t>84613</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -7746,17 +7490,17 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>LETICIA REGINA R NORBIATO</t>
+          <t>DANIELE RODRIGUES HORTA</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 14/11/2023a14/11/2024</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>53123089403292</t>
+          <t>53123090379324</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7786,7 +7530,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>404128 - MINUCCI &amp; ZANUTO COR SEG LTDA</t>
+          <t>404835 - MAFA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7801,12 +7545,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>83545</t>
+          <t>17980</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -7816,17 +7560,17 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>LUIZ FERNANDO RAPA</t>
+          <t>MARIA STELA BARROS MISIARA</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>53123088919562</t>
+          <t>53103BG09DOSH1</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7856,7 +7600,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>404128 - MINUCCI &amp; ZANUTO COR SEG LTDA</t>
+          <t>404835 - MAFA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7864,46 +7608,14 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>83879</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>EDNA REGINA DE ANDRADE ALTHERO</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>De: 30/10/2023a30/10/2024</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>53123089264179</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -7926,7 +7638,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>404128 - MINUCCI &amp; ZANUTO COR SEG LTDA</t>
+          <t>400299 - MARCOS ANTONIO POMPOLINI PAIVA</t>
         </is>
       </c>
     </row>
@@ -7941,12 +7653,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>83986</t>
+          <t>17637</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -7956,17 +7668,17 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>MARCIO KAZUO YAMAMOTO</t>
+          <t>LUCIANE MARTINS ZANUTO BIANCHI</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>De: 31/10/2023a31/10/2024</t>
+          <t>De: 09/11/2023a09/11/2024</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>53123089403527</t>
+          <t>53103BG07C66P2</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8004,14 +7716,46 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>84292</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>ANDRE LUIZ RODRIGUES DA SILVA</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>De: 09/11/2023a09/11/2024</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>53123089844850</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J116" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -8024,7 +7768,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -8062,7 +7806,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -8072,7 +7816,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>527629 - MOLAN CORRETORA DE SEGUROS LTDA</t>
+          <t>404128 - MINUCCI &amp; ZANUTO COR SEG LTDA</t>
         </is>
       </c>
     </row>
@@ -8080,46 +7824,14 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>83325</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>COPICAL C.DEP.C. LTDA</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>De: 02/10/2023a02/10/2024</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>53123088664076</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -8142,7 +7854,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>403928 - NICOLETTI &amp; ROMAGNOLLI COR SEGS</t>
+          <t>527629 - MOLAN CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -8162,7 +7874,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>17083</t>
+          <t>17704</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -8172,17 +7884,17 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>SERGIO APARECIDO GODOI</t>
+          <t>MARIANA RIELLO GOMES IESSI</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>De: 04/10/2023a04/10/2024</t>
+          <t>De: 14/11/2023a14/11/2024</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>53103BG041FHT6</t>
+          <t>53103BG07QJ5T1</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8227,12 +7939,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>17118</t>
+          <t>84583</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -8242,17 +7954,17 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ANA PAULA NAZARETH CORDEIRO</t>
+          <t>RODRIGO PADILHA DE CASTRO PERES</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 14/11/2023a14/11/2024</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>53103BG048XK14</t>
+          <t>53123090262818</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8302,7 +8014,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>17077</t>
+          <t>17665</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -8312,17 +8024,17 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>FERNANDO SALIBA</t>
+          <t>MARIA CRISTINA PEREIRA LIMA</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>De: 09/10/2023a09/10/2024</t>
+          <t>De: 15/11/2023a15/11/2024</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>53103BG0405755</t>
+          <t>53103BG07I68H4</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8367,12 +8079,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>17299</t>
+          <t>84538</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -8382,17 +8094,17 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>RODNEI ANTONIO ROSA</t>
+          <t>JOSE APARECIDO BENTO</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>53103BG05BQ5T5</t>
+          <t>53123090178370</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8437,12 +8149,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>17369</t>
+          <t>84791</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -8452,17 +8164,17 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>RUBENS CAVALHEIRO IORICCI</t>
+          <t>ANA MARIA MADDARENA MATOS</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>53103BG05QQA93</t>
+          <t>53123090579862</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -8507,12 +8219,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>17906</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -8522,17 +8234,17 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>ARQUIDIOCESE DE SANTANA DE BOTUCATU</t>
+          <t>VERONICA DEVIDE</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>De: 28/10/2023a28/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>53103BFXOH7K17</t>
+          <t>53103BG08XTSX9</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -8582,7 +8294,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>17096</t>
+          <t>17461</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -8592,17 +8304,17 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>GILBERTO DA SILVA</t>
+          <t>NELSON SARMAZO</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>53103BG0447SX0</t>
+          <t>53103BG06AG5T0</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8647,12 +8359,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>17719</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -8662,17 +8374,17 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>OBARA CURSO DE IDIOMAS LTDA</t>
+          <t>CARLA LIBERATO BASTOS FLORENCIO</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>De: 07/10/2023a07/10/2024</t>
+          <t>De: 14/11/2023a14/11/2024</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>53103BFXO7CM90</t>
+          <t>53103BG07TQWH1</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8717,12 +8429,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>83334</t>
+          <t>17728</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -8732,17 +8444,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>GABRIEL CHAVES DA SILVA</t>
+          <t>MARIUSE APARECIDA DE CASTRO ALMEIDA</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>53123088664165</t>
+          <t>53103BG07VOCH4</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8787,12 +8499,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>83996</t>
+          <t>17799</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -8802,17 +8514,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>JOSE MORO NETO</t>
+          <t>DAUANE CRISTINE ORSO TOSCAN</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>53123089403624</t>
+          <t>53103BG08AW6P6</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8850,14 +8562,46 @@
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>84787</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>CLAUDEMIR GREGORIO MENDES</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>De: 20/11/2023a20/11/2024</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>53123090579820</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J129" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -8870,7 +8614,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -8895,12 +8639,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>17862</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -8910,17 +8654,17 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>MPTRAN MEDICINA DO TRAFEGO LTDA</t>
+          <t>VINICIUS ROCHA VANIN</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>53103BFXOEUOH9</t>
+          <t>53103BG08OEAP8</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -8950,7 +8694,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>404478 - ONSITE CORRETORA DE SEGUROS LTDA</t>
+          <t>495149 - ONLINE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -8965,12 +8709,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>30080</t>
+          <t>17868</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -8980,17 +8724,17 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>KASPEZACK PEREIRA DA PAZ</t>
+          <t>FABIO HENRIQUE SILVESTRE</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>De: 17/10/2023a17/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>53123088664289</t>
+          <t>53103BG08POLD9</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9010,7 +8754,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -9020,7 +8764,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>404478 - ONSITE CORRETORA DE SEGUROS LTDA</t>
+          <t>495149 - ONLINE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -9035,12 +8779,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>919</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>83710</t>
+          <t>645</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -9050,17 +8794,17 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>MARISA APARECIDA DIAS ESCALIANTE</t>
+          <t>CONDOMINIO RESIDENCIAL DOS GIRASSOIS</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>53123089062088</t>
+          <t>53103BFXE672P5</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9090,7 +8834,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>401432 - PAVANATO CORRETORA DE SEGUROS LT</t>
+          <t>495149 - ONLINE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -9098,14 +8842,46 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>85170</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>RENATO KLEBER TARTARI PAES</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>De: 24/11/2023a24/11/2024</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>53123091099481</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J133" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -9128,7 +8904,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>404437 - PERSONALITE ADM E COR DE SEGUROS</t>
+          <t>495149 - ONLINE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -9136,14 +8912,46 @@
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>17962</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>LEANDRO MICHEL BOCALON</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>De: 29/11/2023a29/11/2024</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>53103BG099TWH2</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J134" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -9166,7 +8974,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>508005 - PHR. ADMINISTRATIVO E CORR DE SE</t>
+          <t>495149 - ONLINE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -9181,12 +8989,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>17430</t>
+          <t>84818</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -9196,17 +9004,17 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>FERNANDO LUIS BATOCCHIO</t>
+          <t>CAROLINE KRAUSER</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>53103BG063SYP0</t>
+          <t>53123090580135</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9236,7 +9044,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>405180 - PRA SEMPRE ADM CORR SEG SC LT</t>
+          <t>495149 - ONLINE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -9244,46 +9052,14 @@
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>17435</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>ANTONIO MARCOS BERTONCIN</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>De: 28/10/2023a28/10/2024</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>53103BG064VJL2</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -9296,7 +9072,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -9306,7 +9082,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>405180 - PRA SEMPRE ADM CORR SEG SC LT</t>
+          <t>495149 - ONLINE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -9326,7 +9102,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>83832</t>
+          <t>84078</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -9336,17 +9112,17 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>SONIA APARECIDA MATOS RIBEIRO DA SILVA</t>
+          <t>JULIANA SANTOS FERNANDES</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>53123089198249</t>
+          <t>53123089517190</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -9376,7 +9152,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>405068 - RH CORRETORA DE SEGUROS S/C LTDA</t>
+          <t>404478 - ONSITE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -9384,14 +9160,46 @@
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>84333</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>J S F COMERCIO DE BEBIDAS EIRELI ME</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>De: 09/11/2023a09/11/2024</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>53123089913584</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J138" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -9404,7 +9212,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -9414,7 +9222,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>405068 - RH CORRETORA DE SEGUROS S/C LTDA</t>
+          <t>404478 - ONSITE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -9429,12 +9237,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>83296</t>
+          <t>17747</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -9444,17 +9252,17 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>LUIZ CARLOS MARCOLONGO</t>
+          <t>LUCIMAR BORGES DE LIMA</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>53123088663789</t>
+          <t>53103BG07ZQY96</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -9484,7 +9292,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>402601 - SABBAG COR.ADM.E CONSULT.DE SEGS</t>
+          <t>404478 - ONSITE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -9499,12 +9307,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>83476</t>
+          <t>17750</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -9514,17 +9322,17 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ELEN CRISTINA RODRIGUES KUDSE</t>
+          <t>BARBARA IVIS BORGES DE LIMA DOS SANTOS</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>53123088866353</t>
+          <t>53103BG080E3L4</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -9554,7 +9362,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>402601 - SABBAG COR.ADM.E CONSULT.DE SEGS</t>
+          <t>404478 - ONSITE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -9574,7 +9382,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>82540</t>
+          <t>84705</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -9584,17 +9392,17 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>IGOR DE MARCO NOGUEIRA</t>
+          <t>VANESSA APARECIDA BITONTI DA SILVA</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>53123087705003</t>
+          <t>53123090461039</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -9624,7 +9432,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>403180 - SENDER CORRETORA SEGS LTDA</t>
+          <t>404478 - ONSITE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -9644,7 +9452,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>84021</t>
+          <t>84718</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -9654,17 +9462,17 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>ADORA INDUSTRIA DE CALCADOS LTDA</t>
+          <t>RITA DE CASSIA ROSAL</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>De: 29/10/2023a29/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>53123089457074</t>
+          <t>53123090461160</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -9694,7 +9502,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>403180 - SENDER CORRETORA SEGS LTDA</t>
+          <t>404478 - ONSITE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -9722,7 +9530,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -9732,7 +9540,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>436408 - SERTAN COR E ADM DE SEGUROS LTDA</t>
+          <t>404478 - ONSITE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -9740,14 +9548,46 @@
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>84632</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>LAURA NEVES MEDICE</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>De: 18/11/2023a18/11/2024</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>53123090379510</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J144" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -9760,7 +9600,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -9770,7 +9610,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>436408 - SERTAN COR E ADM DE SEGUROS LTDA</t>
+          <t>401432 - PAVANATO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -9785,12 +9625,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>17011</t>
+          <t>84314</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -9800,17 +9640,17 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>WILSON APARECIDO BORRERE</t>
+          <t>CIFUENTES E VALENZUELA ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>53103BG03LZXT2</t>
+          <t>53123089913398</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -9840,7 +9680,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>440556 - SILVA &amp; ANDRADE CORR SEGS LTDA</t>
+          <t>404437 - PERSONALITE ADM E COR DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -9848,46 +9688,14 @@
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>83627</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>ODAIR AFFONSO MEDEIROS DA SILVA</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>De: 21/10/2023a21/10/2024</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>53123088993886</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -9910,7 +9718,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>440556 - SILVA &amp; ANDRADE CORR SEGS LTDA</t>
+          <t>508005 - PHR. ADMINISTRATIVO E CORR DE SE</t>
         </is>
       </c>
     </row>
@@ -9930,7 +9738,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>82950</t>
+          <t>84614</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -9940,17 +9748,17 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>MARIA HELENA RIZATTO CRIADO</t>
+          <t>JESSYCA GALLIS MUSSI</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>De: 02/10/2023a02/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>53123088253521</t>
+          <t>53123090379332</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -9980,7 +9788,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>401201 - SILVIO CARLOS DAVILA GONCALVES</t>
+          <t>405180 - PRA SEMPRE ADM CORR SEG SC LT</t>
         </is>
       </c>
     </row>
@@ -10000,7 +9808,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>83999</t>
+          <t>84716</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -10010,22 +9818,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>JESSICA FRANCIELLE DA SILVA</t>
+          <t>ELETRO JORDAO ZAGO COM E REPR MAT ELETRI</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 18/11/2023a18/11/2024</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>53123089403659</t>
+          <t>53123090461144</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -10050,7 +9858,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>401201 - SILVIO CARLOS DAVILA GONCALVES</t>
+          <t>405180 - PRA SEMPRE ADM CORR SEG SC LT</t>
         </is>
       </c>
     </row>
@@ -10070,7 +9878,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>83313</t>
+          <t>84369</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -10080,22 +9888,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>ELISABETE DE SOUZA DAMACENO</t>
+          <t>MARCIA MARIA URTADO MARTELINE</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>De: 09/10/2023a09/10/2024</t>
+          <t>De: 06/11/2023a06/11/2024</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>53123088663959</t>
+          <t>53123089977604</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10120,7 +9928,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>405298 - SOUZA &amp; CASTRO CORR.SEGUROS LTDA</t>
+          <t>405068 - RH CORRETORA DE SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -10128,14 +9936,46 @@
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>17680</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>LUIS HENRIQUE MANTOVANI</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>De: 17/11/2023a17/11/2024</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>53103BG07LDZ51</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J150" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -10158,7 +9998,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>495847 - TOP ALTA PROTECAO CORRETORA DE S</t>
+          <t>405068 - RH CORRETORA DE SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -10173,12 +10013,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>17775</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -10188,17 +10028,17 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>EUCLIDES FUZETTI</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>53103BFXO4KB52</t>
+          <t>53103BG085R011</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -10228,7 +10068,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>405068 - RH CORRETORA DE SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -10248,7 +10088,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>17020</t>
+          <t>17689</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -10258,17 +10098,17 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>LUCIA ASATO</t>
+          <t>ANTONIO FELICIANO COUTINHO</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 20/11/2023a20/11/2024</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>53103BG03NXDT5</t>
+          <t>53103BG07NBF54</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -10298,7 +10138,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>405068 - RH CORRETORA DE SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -10313,12 +10153,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>84641</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -10328,17 +10168,17 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>CONDOMINIO RESIDENCIAL ECOVILLE HABITARE</t>
+          <t>ROSELY MARCONDES SIMOES CAMARGO</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>53103BFXE1P1D1</t>
+          <t>53123090379600</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -10368,7 +10208,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>405068 - RH CORRETORA DE SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -10388,7 +10228,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>17109</t>
+          <t>17824</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -10398,17 +10238,17 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>VALQUIRIA NOTARIO MARTINHAO</t>
+          <t>SERGIO FRANCISCO DE FREITAS</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>53103BG0470417</t>
+          <t>53103BG08G9355</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -10438,7 +10278,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>405068 - RH CORRETORA DE SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -10453,12 +10293,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>17932</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -10468,17 +10308,17 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>CONDOMINIO EDIFICIO RESIDENCIAL CAMILA</t>
+          <t>SILMARA SANCHES GRACIANO CUSTODIO</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>De: 09/10/2023a09/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>53103BFXE2C6P9</t>
+          <t>53103BG093EF55</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -10508,7 +10348,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>405068 - RH CORRETORA DE SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10368,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>17142</t>
+          <t>17949</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -10538,17 +10378,17 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>TEREZA CRISTINA MARZOLA</t>
+          <t>SILMARA SANCHES GRACIANO CUSTODIO</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>De: 09/10/2023a09/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>53103BG04E2QP0</t>
+          <t>53103BG0971LD6</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -10578,7 +10418,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>405068 - RH CORRETORA DE SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -10586,46 +10426,14 @@
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>919</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>630</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>CONDOMINIO RESIDENCIAL ARECO</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>De: 10/10/2023a10/10/2024</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>53103BFXE2ZC16</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -10638,7 +10446,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -10648,7 +10456,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>405068 - RH CORRETORA DE SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -10656,46 +10464,14 @@
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>17177</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>IRENE BOCCHI CARDOSO</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>De: 11/10/2023a11/10/2024</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>53103BG04LKSX8</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -10718,7 +10494,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>402601 - SABBAG COR.ADM.E CONSULT.DE SEGS</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10514,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>83341</t>
+          <t>84235</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -10748,22 +10524,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>GABRIEL SAGIORATTO JACOB</t>
+          <t>ROSILENE SITONI BILIERI</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>53123088664238</t>
+          <t>53123089792507</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10788,7 +10564,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>403180 - SENDER CORRETORA SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -10808,7 +10584,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>83241</t>
+          <t>84877</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -10818,17 +10594,17 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>LEONOR MARIA TANURI</t>
+          <t>GUILHERME MANOEL LUAN ME</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>De: 14/10/2023a14/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>53123088583211</t>
+          <t>53123090692758</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -10858,7 +10634,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>403180 - SENDER CORRETORA SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -10878,7 +10654,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>17246</t>
+          <t>17723</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -10888,17 +10664,17 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>CARLOS ALBERTO DOS SANTOS MATTOS</t>
+          <t>ELIAS FERREIRA DA SILVA</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>De: 17/10/2023a17/10/2024</t>
+          <t>De: 26/11/2023a26/11/2024</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>53103BG050D7L3</t>
+          <t>53103BG07ULRL1</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -10928,7 +10704,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>403180 - SENDER CORRETORA SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -10948,7 +10724,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>17276</t>
+          <t>17936</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -10958,17 +10734,17 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>CLAUDIA DA SILVA</t>
+          <t>MARCOS ROGERIO FRANCHIN</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>53103BG056SOX4</t>
+          <t>53103BG0949A90</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -10998,7 +10774,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>403180 - SENDER CORRETORA SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -11006,46 +10782,14 @@
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>17301</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>SIDNEY EDUARDO CATELI</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>De: 18/10/2023a18/10/2024</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>53103BG05C5LD9</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -11068,7 +10812,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>436408 - SERTAN COR E ADM DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -11076,46 +10820,14 @@
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>919</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>637</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>CONDOMINIO RESIDENCIAL EDIFICIO ALAMANDA</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>De: 22/10/2023a22/10/2024</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>53103BFXE4HCH0</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -11128,7 +10840,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -11138,7 +10850,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>436408 - SERTAN COR E ADM DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -11153,12 +10865,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>17329</t>
+          <t>84905</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -11168,17 +10880,17 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>AMERICO FITTIPALDI JUNIOR</t>
+          <t>DEBORAH BARBAN CASTILHO</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>De: 22/10/2023a22/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>53103BG05I5N53</t>
+          <t>53123090762497</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -11208,7 +10920,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>440556 - SILVA &amp; ANDRADE CORR SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -11223,12 +10935,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>84863</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -11238,17 +10950,17 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>CONDOMINIO EDIFICIO LEBLON</t>
+          <t>DIEGO FLORIANO COUTINHO</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 20/11/2023a20/11/2024</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>53103BFXE4P295</t>
+          <t>53123090692618</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -11278,7 +10990,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>440556 - SILVA &amp; ANDRADE CORR SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -11293,12 +11005,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>84645</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -11308,17 +11020,17 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>CONDOMINIO RESIDENCIAL CORAL GABLES</t>
+          <t>PAULO TADASHI TANAKA</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>53103BFXE3U755</t>
+          <t>53123090379642</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -11348,7 +11060,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>440556 - SILVA &amp; ANDRADE CORR SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -11368,27 +11080,27 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>84402</t>
+          <t>84215</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>CONCREMAC CONCRETO LTDA</t>
+          <t>ELIETE CRISTINA MURIANO</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>00000000000000</t>
+          <t>53123089732539</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -11418,7 +11130,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>401201 - SILVIO CARLOS DAVILA GONCALVES</t>
         </is>
       </c>
     </row>
@@ -11426,46 +11138,14 @@
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>84402</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>CONCREMAC CONCRETO LTDA</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>De: 30/10/2023a30/10/2024</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>53123089936410</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -11488,7 +11168,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>405298 - SOUZA &amp; CASTRO CORR.SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -11496,46 +11176,14 @@
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>84402</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>CONCREMAC CONCRETO LTDA</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>De: 30/10/2023a30/10/2024</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>53123089936428</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -11558,7 +11206,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>495847 - TOP ALTA PROTECAO CORRETORA DE S</t>
         </is>
       </c>
     </row>
@@ -11573,32 +11221,32 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>84402</t>
+          <t>17659</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>CONCREMAC CONCRETO LTDA</t>
+          <t>ADALZIZA DOMINGUES BATISTA</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>53123089936436</t>
+          <t>53103BG07GVXT8</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -11643,32 +11291,32 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>84402</t>
+          <t>17627</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>CONCREMAC CONCRETO LTDA</t>
+          <t>ARY RIBEIRO LEITE</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>De: 07/12/2023a30/10/2024</t>
+          <t>De: 12/11/2023a12/11/2024</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>53123091355160</t>
+          <t>53103BG07A10X1</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -11713,32 +11361,32 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>84402</t>
+          <t>17660</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>CONCREMAC CONCRETO LTDA</t>
+          <t>MARIA RODRIGUES GARCIA</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>De: 07/12/2023a30/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>53123091355178</t>
+          <t>53103BG07H3NL2</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -11783,12 +11431,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>17855</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -11798,17 +11446,17 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>CONDOMINIO PRACA DOS IPES</t>
+          <t>ARI MORENO BERETTA</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>De: 31/10/2023a31/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>53103BFXE5JXD9</t>
+          <t>53103BG08MWA93</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -11858,7 +11506,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>17494</t>
+          <t>17913</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -11868,17 +11516,17 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>AILTON JOSE SCARAMUCI</t>
+          <t>DEGIVAL SEBASTIAO DA SILVA</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>De: 31/10/2023a31/10/2024</t>
+          <t>De: 25/11/2023a25/11/2024</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>53103BG06HISH1</t>
+          <t>53103BG08ZBTD9</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -11928,7 +11576,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>17495</t>
+          <t>17952</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -11938,17 +11586,17 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>TIAGO SILVEIRA SANTOS</t>
+          <t>LUIZ CARLOS GENNARI</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>De: 31/10/2023a31/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>53103BG06HQI97</t>
+          <t>53103BG097OQP1</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -11986,14 +11634,46 @@
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>17970</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LUIZ CARLOS GENNARI</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>De: 28/11/2023a28/11/2024</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>53103BG09BJMP0</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J177" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -12006,7 +11686,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -12036,7 +11716,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>83790</t>
+          <t>85068</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -12046,17 +11726,17 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>THAIS HELENA ARANTES PARREIRA PINTO</t>
+          <t>SOCIEDADE RESIDENCIAL VALE DO CANAA</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>53123089197820</t>
+          <t>53123090962879</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -12086,7 +11766,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>405473 - TRISTAO DE BAURU CORR SEG. LTDA</t>
+          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -12101,12 +11781,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>17391</t>
+          <t>85069</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -12116,17 +11796,17 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>THIAGO VINICIUS PARANHOS</t>
+          <t>SOCIEDADE RESIDENCIAL VALE DO CANAA</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>53103BG05VG1D0</t>
+          <t>53123090962887</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -12156,7 +11836,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>405473 - TRISTAO DE BAURU CORR SEG. LTDA</t>
+          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -12164,14 +11844,46 @@
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>17989</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>RENATA BORBA GUIMARAES</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>De: 30/11/2023a30/11/2024</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>53103BG09FM8H3</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J180" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -12194,7 +11906,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>530001 - V C CORRETORA DE SEGUROS LTDA</t>
+          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -12209,12 +11921,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>18065</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -12224,17 +11936,17 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>CONDOMINIO EDIFICIO SOLAR MEDITERRANEE</t>
+          <t>RENATA BORBA GUIMARAES</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>53103BFXE1WR53</t>
+          <t>53103BG09VWNL7</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -12264,7 +11976,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>439643 - VITALY COR DE SEG EIRELLI ME</t>
+          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -12272,46 +11984,14 @@
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>919</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>623</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>CONDOMINIO RESIDENCIAL CATUAI</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>De: 09/10/2023a09/10/2024</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>53103BFXE1HBL0</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -12324,7 +12004,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>936 - BAURU MERCADO</t>
+          <t>937 - MARILIA MERCADO</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -12334,7 +12014,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>439643 - VITALY COR DE SEG EIRELLI ME</t>
+          <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -12354,7 +12034,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>83679</t>
+          <t>84168</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -12364,17 +12044,17 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>IGNACIA TOMI SHINOMYA DE CASTRO</t>
+          <t>ALCIDES SANTO SALVATTI</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>De: 09/10/2023a09/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>53123089061774</t>
+          <t>53123089675373</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -12404,7 +12084,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>439643 - VITALY COR DE SEG EIRELLI ME</t>
+          <t>405473 - TRISTAO DE BAURU CORR SEG. LTDA</t>
         </is>
       </c>
     </row>
@@ -12424,7 +12104,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>84048</t>
+          <t>84656</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -12434,17 +12114,17 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>COMERCIAL DE BEBIDAS PERINI E SOUZA LTDA</t>
+          <t>VALERIA ROTHBERG GIMAEL</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 25/11/2023a25/11/2024</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>53123089516895</t>
+          <t>53123090379758</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -12474,7 +12154,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>439643 - VITALY COR DE SEG EIRELLI ME</t>
+          <t>405473 - TRISTAO DE BAURU CORR SEG. LTDA</t>
         </is>
       </c>
     </row>
@@ -12502,7 +12182,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>937 - MARILIA MERCADO</t>
+          <t>936 - BAURU MERCADO</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -12512,7 +12192,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>439643 - VITALY COR DE SEG EIRELLI ME</t>
+          <t>530001 - V C CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -12520,46 +12200,14 @@
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>17358</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>ABEL FERNANDO PAES DE BARROS CORTEZ</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>De: 22/10/2023a22/10/2024</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>53103BG05ODEP7</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -12582,7 +12230,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>400530 - WLADIMIR MAROTTA</t>
+          <t>439643 - VITALY COR DE SEG EIRELLI ME</t>
         </is>
       </c>
     </row>
@@ -12590,67 +12238,385 @@
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>937 - MARILIA MERCADO</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>221.941.408-67 - Talita Ariani Lopes Fabiano</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>439643 - VITALY COR DE SEG EIRELLI ME</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
         <is>
           <t>927</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>17398</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>CLAUDIA LOURENCO SIQUEIRA</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>De: 27/10/2023a27/10/2024</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>53103BG05WY1T1</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>936 - BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>221.941.408-67 - Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="N187" t="inlineStr">
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>17752</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>DIOGO RICARDO GOES OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>De: 10/11/2023a10/11/2024</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>53103BG080TJ59</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>936 - BAURU MERCADO</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>221.941.408-67 - Talita Ariani Lopes Fabiano</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>400530 - WLADIMIR MAROTTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2398</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>OFICIAL DE REG CIVIL DAS PESSOAS NATURAIS DO 2 SUB</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>De: 17/11/2023a17/11/2024</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>53103BFXOLXB56</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>936 - BAURU MERCADO</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>221.941.408-67 - Talita Ariani Lopes Fabiano</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>400530 - WLADIMIR MAROTTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>17681</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>ALESSANDRA VALENTIM SATO</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>De: 17/11/2023a17/11/2024</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>53103BG07LLOX9</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>936 - BAURU MERCADO</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>221.941.408-67 - Talita Ariani Lopes Fabiano</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>400530 - WLADIMIR MAROTTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>84545</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>ANTONIO CARLOS DE CAMPOS</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>De: 21/11/2023a21/11/2024</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>53123090178442</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>936 - BAURU MERCADO</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>221.941.408-67 - Talita Ariani Lopes Fabiano</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>400530 - WLADIMIR MAROTTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>84630</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>ANTONIO CARLOS DE CAMPOS</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>De: 23/11/2023a23/11/2024</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>53123090379499</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>936 - BAURU MERCADO</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>221.941.408-67 - Talita Ariani Lopes Fabiano</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
         <is>
           <t>400530 - WLADIMIR MAROTTA</t>
         </is>
